--- a/TNR_PREJDD/PREJDD.MP.CPT.xlsx
+++ b/TNR_PREJDD/PREJDD.MP.CPT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="117">
   <si>
     <t>CAS DE TEST (COM)</t>
   </si>
@@ -988,8 +988,8 @@
       <c r="S2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="11" t="s">
-        <v>34</v>
+      <c r="T2" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>38</v>
@@ -1077,8 +1077,8 @@
       <c r="S3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="11" t="s">
-        <v>34</v>
+      <c r="T3" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U3" s="10" t="s">
         <v>38</v>
@@ -1166,8 +1166,8 @@
       <c r="S4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="11" t="s">
-        <v>34</v>
+      <c r="T4" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U4" s="15" t="s">
         <v>38</v>
@@ -1255,8 +1255,8 @@
       <c r="S5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="11" t="s">
-        <v>34</v>
+      <c r="T5" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U5" s="15" t="s">
         <v>38</v>
@@ -1344,8 +1344,8 @@
       <c r="S6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T6" s="11" t="s">
-        <v>34</v>
+      <c r="T6" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U6" s="15" t="s">
         <v>38</v>
@@ -1433,8 +1433,8 @@
       <c r="S7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="11" t="s">
-        <v>34</v>
+      <c r="T7" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U7" s="15" t="s">
         <v>38</v>
@@ -1522,8 +1522,8 @@
       <c r="S8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="11" t="s">
-        <v>34</v>
+      <c r="T8" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U8" s="15" t="s">
         <v>38</v>
@@ -1611,8 +1611,8 @@
       <c r="S9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T9" s="11" t="s">
-        <v>34</v>
+      <c r="T9" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U9" s="15" t="s">
         <v>38</v>
@@ -1700,8 +1700,8 @@
       <c r="S10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T10" s="11" t="s">
-        <v>34</v>
+      <c r="T10" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U10" s="15" t="s">
         <v>38</v>
@@ -1789,8 +1789,8 @@
       <c r="S11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T11" s="11" t="s">
-        <v>34</v>
+      <c r="T11" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U11" s="15" t="s">
         <v>38</v>
@@ -1878,8 +1878,8 @@
       <c r="S12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T12" s="11" t="s">
-        <v>34</v>
+      <c r="T12" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U12" s="15" t="s">
         <v>38</v>
@@ -1967,8 +1967,8 @@
       <c r="S13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T13" s="11" t="s">
-        <v>34</v>
+      <c r="T13" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U13" s="15" t="s">
         <v>38</v>
@@ -2056,8 +2056,8 @@
       <c r="S14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T14" s="11" t="s">
-        <v>34</v>
+      <c r="T14" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U14" s="15" t="s">
         <v>38</v>
@@ -2145,8 +2145,8 @@
       <c r="S15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T15" s="11" t="s">
-        <v>34</v>
+      <c r="T15" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U15" s="15" t="s">
         <v>38</v>
@@ -2234,8 +2234,8 @@
       <c r="S16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T16" s="11" t="s">
-        <v>34</v>
+      <c r="T16" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U16" s="15" t="s">
         <v>38</v>
@@ -2323,8 +2323,8 @@
       <c r="S17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T17" s="11" t="s">
-        <v>34</v>
+      <c r="T17" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U17" s="15" t="s">
         <v>38</v>
@@ -2412,8 +2412,8 @@
       <c r="S18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T18" s="11" t="s">
-        <v>34</v>
+      <c r="T18" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U18" s="15" t="s">
         <v>38</v>
@@ -2501,8 +2501,8 @@
       <c r="S19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T19" s="11" t="s">
-        <v>34</v>
+      <c r="T19" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U19" s="15" t="s">
         <v>38</v>
@@ -2590,8 +2590,8 @@
       <c r="S20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T20" s="11" t="s">
-        <v>34</v>
+      <c r="T20" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U20" s="15" t="s">
         <v>38</v>
@@ -2679,8 +2679,8 @@
       <c r="S21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T21" s="11" t="s">
-        <v>34</v>
+      <c r="T21" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U21" s="15" t="s">
         <v>38</v>
@@ -2768,8 +2768,8 @@
       <c r="S22" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T22" s="11" t="s">
-        <v>34</v>
+      <c r="T22" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U22" s="15" t="s">
         <v>38</v>
@@ -2857,8 +2857,8 @@
       <c r="S23" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T23" s="11" t="s">
-        <v>34</v>
+      <c r="T23" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U23" s="15" t="s">
         <v>38</v>
@@ -2946,8 +2946,8 @@
       <c r="S24" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T24" s="11" t="s">
-        <v>34</v>
+      <c r="T24" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U24" s="15" t="s">
         <v>38</v>
@@ -3035,8 +3035,8 @@
       <c r="S25" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T25" s="11" t="s">
-        <v>34</v>
+      <c r="T25" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U25" s="15" t="s">
         <v>38</v>
@@ -3124,8 +3124,8 @@
       <c r="S26" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T26" s="11" t="s">
-        <v>34</v>
+      <c r="T26" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U26" s="15" t="s">
         <v>38</v>
@@ -3213,8 +3213,8 @@
       <c r="S27" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T27" s="11" t="s">
-        <v>34</v>
+      <c r="T27" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U27" s="15" t="s">
         <v>38</v>
@@ -3302,8 +3302,8 @@
       <c r="S28" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T28" s="11" t="s">
-        <v>34</v>
+      <c r="T28" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U28" s="15" t="s">
         <v>38</v>
@@ -3391,8 +3391,8 @@
       <c r="S29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T29" s="11" t="s">
-        <v>34</v>
+      <c r="T29" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U29" s="15" t="s">
         <v>38</v>
@@ -3480,8 +3480,8 @@
       <c r="S30" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T30" s="11" t="s">
-        <v>34</v>
+      <c r="T30" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U30" s="15" t="s">
         <v>38</v>

--- a/TNR_PREJDD/PREJDD.MP.CPT.xlsx
+++ b/TNR_PREJDD/PREJDD.MP.CPT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="117">
   <si>
     <t>CAS DE TEST (COM)</t>
   </si>
@@ -970,12 +970,8 @@
       <c r="M2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
       <c r="P2" s="9" t="s">
         <v>36</v>
       </c>
@@ -988,8 +984,8 @@
       <c r="S2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="15">
-        <v>-1.0</v>
+      <c r="T2" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>38</v>
@@ -1059,12 +1055,8 @@
       <c r="M3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
       <c r="P3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1077,8 +1069,8 @@
       <c r="S3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="15">
-        <v>-1.0</v>
+      <c r="T3" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U3" s="10" t="s">
         <v>38</v>
@@ -1148,12 +1140,8 @@
       <c r="M4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
       <c r="P4" s="15" t="s">
         <v>36</v>
       </c>
@@ -1166,8 +1154,8 @@
       <c r="S4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="15">
-        <v>-1.0</v>
+      <c r="T4" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U4" s="15" t="s">
         <v>38</v>
@@ -1237,12 +1225,8 @@
       <c r="M5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
       <c r="P5" s="9" t="s">
         <v>36</v>
       </c>
@@ -1255,8 +1239,8 @@
       <c r="S5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="15">
-        <v>-1.0</v>
+      <c r="T5" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U5" s="15" t="s">
         <v>38</v>
@@ -1326,12 +1310,8 @@
       <c r="M6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
       <c r="P6" s="9" t="s">
         <v>36</v>
       </c>
@@ -1344,8 +1324,8 @@
       <c r="S6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T6" s="15">
-        <v>-1.0</v>
+      <c r="T6" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U6" s="15" t="s">
         <v>38</v>
@@ -1415,12 +1395,8 @@
       <c r="M7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
       <c r="P7" s="9" t="s">
         <v>36</v>
       </c>
@@ -1433,8 +1409,8 @@
       <c r="S7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="15">
-        <v>-1.0</v>
+      <c r="T7" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U7" s="15" t="s">
         <v>38</v>
@@ -1504,12 +1480,8 @@
       <c r="M8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
       <c r="P8" s="9" t="s">
         <v>36</v>
       </c>
@@ -1522,8 +1494,8 @@
       <c r="S8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="15">
-        <v>-1.0</v>
+      <c r="T8" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U8" s="15" t="s">
         <v>38</v>
@@ -1593,12 +1565,8 @@
       <c r="M9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
       <c r="P9" s="9" t="s">
         <v>36</v>
       </c>
@@ -1611,8 +1579,8 @@
       <c r="S9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T9" s="15">
-        <v>-1.0</v>
+      <c r="T9" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U9" s="15" t="s">
         <v>38</v>
@@ -1682,12 +1650,8 @@
       <c r="M10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
       <c r="P10" s="9" t="s">
         <v>36</v>
       </c>
@@ -1700,8 +1664,8 @@
       <c r="S10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T10" s="15">
-        <v>-1.0</v>
+      <c r="T10" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U10" s="15" t="s">
         <v>38</v>
@@ -1771,12 +1735,8 @@
       <c r="M11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
       <c r="P11" s="9" t="s">
         <v>36</v>
       </c>
@@ -1789,8 +1749,8 @@
       <c r="S11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T11" s="15">
-        <v>-1.0</v>
+      <c r="T11" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U11" s="15" t="s">
         <v>38</v>
@@ -1860,12 +1820,8 @@
       <c r="M12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
       <c r="P12" s="9" t="s">
         <v>36</v>
       </c>
@@ -1878,8 +1834,8 @@
       <c r="S12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T12" s="15">
-        <v>-1.0</v>
+      <c r="T12" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U12" s="15" t="s">
         <v>38</v>
@@ -1949,12 +1905,8 @@
       <c r="M13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
       <c r="P13" s="9" t="s">
         <v>36</v>
       </c>
@@ -1967,8 +1919,8 @@
       <c r="S13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T13" s="15">
-        <v>-1.0</v>
+      <c r="T13" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U13" s="15" t="s">
         <v>38</v>
@@ -2038,12 +1990,8 @@
       <c r="M14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
       <c r="P14" s="9" t="s">
         <v>36</v>
       </c>
@@ -2056,8 +2004,8 @@
       <c r="S14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T14" s="15">
-        <v>-1.0</v>
+      <c r="T14" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U14" s="15" t="s">
         <v>38</v>
@@ -2127,12 +2075,8 @@
       <c r="M15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N15" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
       <c r="P15" s="9" t="s">
         <v>36</v>
       </c>
@@ -2145,8 +2089,8 @@
       <c r="S15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T15" s="15">
-        <v>-1.0</v>
+      <c r="T15" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U15" s="15" t="s">
         <v>38</v>
@@ -2216,12 +2160,8 @@
       <c r="M16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N16" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
       <c r="P16" s="9" t="s">
         <v>36</v>
       </c>
@@ -2234,8 +2174,8 @@
       <c r="S16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T16" s="15">
-        <v>-1.0</v>
+      <c r="T16" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U16" s="15" t="s">
         <v>38</v>
@@ -2305,12 +2245,8 @@
       <c r="M17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
       <c r="P17" s="9" t="s">
         <v>36</v>
       </c>
@@ -2323,8 +2259,8 @@
       <c r="S17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T17" s="15">
-        <v>-1.0</v>
+      <c r="T17" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U17" s="15" t="s">
         <v>38</v>
@@ -2394,12 +2330,8 @@
       <c r="M18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
       <c r="P18" s="9" t="s">
         <v>36</v>
       </c>
@@ -2412,8 +2344,8 @@
       <c r="S18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T18" s="15">
-        <v>-1.0</v>
+      <c r="T18" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U18" s="15" t="s">
         <v>38</v>
@@ -2483,12 +2415,8 @@
       <c r="M19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N19" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
       <c r="P19" s="9" t="s">
         <v>36</v>
       </c>
@@ -2501,8 +2429,8 @@
       <c r="S19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T19" s="15">
-        <v>-1.0</v>
+      <c r="T19" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U19" s="15" t="s">
         <v>38</v>
@@ -2572,12 +2500,8 @@
       <c r="M20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N20" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
       <c r="P20" s="9" t="s">
         <v>36</v>
       </c>
@@ -2590,8 +2514,8 @@
       <c r="S20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T20" s="15">
-        <v>-1.0</v>
+      <c r="T20" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U20" s="15" t="s">
         <v>38</v>
@@ -2661,12 +2585,8 @@
       <c r="M21" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N21" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
       <c r="P21" s="9" t="s">
         <v>36</v>
       </c>
@@ -2679,8 +2599,8 @@
       <c r="S21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T21" s="15">
-        <v>-1.0</v>
+      <c r="T21" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U21" s="15" t="s">
         <v>38</v>
@@ -2750,12 +2670,8 @@
       <c r="M22" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N22" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
       <c r="P22" s="9" t="s">
         <v>36</v>
       </c>
@@ -2768,8 +2684,8 @@
       <c r="S22" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T22" s="15">
-        <v>-1.0</v>
+      <c r="T22" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U22" s="15" t="s">
         <v>38</v>
@@ -2839,12 +2755,8 @@
       <c r="M23" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O23" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
       <c r="P23" s="9" t="s">
         <v>36</v>
       </c>
@@ -2857,8 +2769,8 @@
       <c r="S23" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T23" s="15">
-        <v>-1.0</v>
+      <c r="T23" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U23" s="15" t="s">
         <v>38</v>
@@ -2928,12 +2840,8 @@
       <c r="M24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
       <c r="P24" s="9" t="s">
         <v>36</v>
       </c>
@@ -2946,8 +2854,8 @@
       <c r="S24" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T24" s="15">
-        <v>-1.0</v>
+      <c r="T24" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U24" s="15" t="s">
         <v>38</v>
@@ -3017,12 +2925,8 @@
       <c r="M25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N25" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
       <c r="P25" s="9" t="s">
         <v>36</v>
       </c>
@@ -3035,8 +2939,8 @@
       <c r="S25" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T25" s="15">
-        <v>-1.0</v>
+      <c r="T25" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U25" s="15" t="s">
         <v>38</v>
@@ -3106,12 +3010,8 @@
       <c r="M26" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N26" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
       <c r="P26" s="9" t="s">
         <v>36</v>
       </c>
@@ -3124,8 +3024,8 @@
       <c r="S26" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T26" s="15">
-        <v>-1.0</v>
+      <c r="T26" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U26" s="15" t="s">
         <v>38</v>
@@ -3195,12 +3095,8 @@
       <c r="M27" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N27" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
       <c r="P27" s="9" t="s">
         <v>36</v>
       </c>
@@ -3213,8 +3109,8 @@
       <c r="S27" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T27" s="15">
-        <v>-1.0</v>
+      <c r="T27" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U27" s="15" t="s">
         <v>38</v>
@@ -3284,12 +3180,8 @@
       <c r="M28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N28" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
       <c r="P28" s="9" t="s">
         <v>36</v>
       </c>
@@ -3302,8 +3194,8 @@
       <c r="S28" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T28" s="15">
-        <v>-1.0</v>
+      <c r="T28" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U28" s="15" t="s">
         <v>38</v>
@@ -3373,12 +3265,8 @@
       <c r="M29" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N29" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
       <c r="P29" s="9" t="s">
         <v>36</v>
       </c>
@@ -3391,8 +3279,8 @@
       <c r="S29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T29" s="15">
-        <v>-1.0</v>
+      <c r="T29" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U29" s="15" t="s">
         <v>38</v>
@@ -3462,12 +3350,8 @@
       <c r="M30" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N30" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O30" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
       <c r="P30" s="9" t="s">
         <v>36</v>
       </c>
@@ -3480,8 +3364,8 @@
       <c r="S30" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T30" s="15">
-        <v>-1.0</v>
+      <c r="T30" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="U30" s="15" t="s">
         <v>38</v>
